--- a/medicine/Psychotrope/Algarve_(VR)/Algarve_(VR).xlsx
+++ b/medicine/Psychotrope/Algarve_(VR)/Algarve_(VR).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'algarve fait partie des vinhos regionais (VR) portugais.
 </t>
@@ -511,9 +523,11 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son terroir viticole recouvre celui de la région de l'Algarve. Ce vignoble est situé sur la côte sud du Portugal, région touristique, et ses vins sont très peu exportés[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son terroir viticole recouvre celui de la région de l'Algarve. Ce vignoble est situé sur la côte sud du Portugal, région touristique, et ses vins sont très peu exportés.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Encépagement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'encépagement est à base d'Arinto, Baga, Castelão, Fernão Pires, Rabo de Ovelha, Tinta amarela, Trincadeira das Pratas, Ugni blanc et Vital[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'encépagement est à base d'Arinto, Baga, Castelão, Fernão Pires, Rabo de Ovelha, Tinta amarela, Trincadeira das Pratas, Ugni blanc et Vital.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Autres vins de l'Algarve</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Outre ses vinhos regionais (VR), l'Algarve possède quatre grandes régions d'appellation : Lagos, Portimão, Lagoa et Tavira[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outre ses vinhos regionais (VR), l'Algarve possède quatre grandes régions d'appellation : Lagos, Portimão, Lagoa et Tavira.
 </t>
         </is>
       </c>
